--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\email list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CBEB2B-4B96-40A9-9BC2-0D0B43E3B274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1346BC-D62E-4AD1-80EB-8593D577D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +291,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -332,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -341,6 +347,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -811,7 +820,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -842,13 +851,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -860,13 +869,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\email list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1346BC-D62E-4AD1-80EB-8593D577D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4CE4DB-8F29-4C76-AF1E-B0AC2766AD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68" yWindow="1095" windowWidth="21660" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +297,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -338,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -350,12 +356,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -819,14 +837,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.9296875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.1328125" style="3" customWidth="1"/>
@@ -887,11 +905,11 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B13" si="0">A2&amp;"/"&amp;A2</f>
-        <v>1/1</v>
+        <v>12/12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -914,7 +932,7 @@
       </c>
       <c r="I2" s="3" t="str">
         <f t="array" aca="1" ref="I2" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B2,"/","_")&amp;"-"&amp;H2&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\1_1-Раськин Сергей Михайлович.pdf</v>
+        <v>D:\GIT\email list\PDF\12_12-Раськин Сергей Михайлович.pdf</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -922,17 +940,17 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2/2</v>
+        <v>13/13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -955,7 +973,7 @@
       </c>
       <c r="I3" s="3" t="str">
         <f t="array" aca="1" ref="I3" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B3,"/","_")&amp;"-"&amp;H3&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\2_2-Марат Ильич Рахимов.pdf</v>
+        <v>D:\GIT\email list\PDF\13_13-Марат Ильич Рахимов.pdf</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -963,17 +981,17 @@
       <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3/3</v>
+        <v>14/14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -996,7 +1014,7 @@
       </c>
       <c r="I4" s="3" t="str">
         <f t="array" aca="1" ref="I4" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B4,"/","_")&amp;"-"&amp;H4&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\3_3-Владимир Риб.pdf</v>
+        <v>D:\GIT\email list\PDF\14_14-Владимир Риб.pdf</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
@@ -1004,17 +1022,17 @@
       <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4/4</v>
+        <v>15/15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -1037,7 +1055,7 @@
       </c>
       <c r="I5" s="3" t="str">
         <f t="array" aca="1" ref="I5" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B5,"/","_")&amp;"-"&amp;H5&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\4_4-Илья Сергеевич Рычков.pdf</v>
+        <v>D:\GIT\email list\PDF\15_15-Илья Сергеевич Рычков.pdf</v>
       </c>
       <c r="J5" t="s">
         <v>35</v>
@@ -1045,17 +1063,17 @@
       <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5/5</v>
+        <v>16/16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -1078,7 +1096,7 @@
       </c>
       <c r="I6" s="3" t="str">
         <f t="array" aca="1" ref="I6" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B6,"/","_")&amp;"-"&amp;H6&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\5_5-Евгения Семенова.pdf</v>
+        <v>D:\GIT\email list\PDF\16_16-Евгения Семенова.pdf</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
@@ -1086,17 +1104,17 @@
       <c r="K6" t="s">
         <v>42</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6/6</v>
+        <v>17/17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -1119,7 +1137,7 @@
       </c>
       <c r="I7" s="3" t="str">
         <f t="array" aca="1" ref="I7" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B7,"/","_")&amp;"-"&amp;H7&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\6_6-Федор Сироткин.pdf</v>
+        <v>D:\GIT\email list\PDF\17_17-Федор Сироткин.pdf</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
@@ -1127,17 +1145,17 @@
       <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>7/7</v>
+        <v>18/18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -1160,7 +1178,7 @@
       </c>
       <c r="I8" s="3" t="str">
         <f t="array" aca="1" ref="I8" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B8,"/","_")&amp;"-"&amp;H8&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\7_7-Елена Михайловна Соломатова.pdf</v>
+        <v>D:\GIT\email list\PDF\18_18-Елена Михайловна Соломатова.pdf</v>
       </c>
       <c r="J8" t="s">
         <v>53</v>
@@ -1168,17 +1186,17 @@
       <c r="K8" t="s">
         <v>54</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>8/8</v>
+        <v>19/19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -1201,7 +1219,7 @@
       </c>
       <c r="I9" s="3" t="str">
         <f t="array" aca="1" ref="I9" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B9,"/","_")&amp;"-"&amp;H9&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\8_8-Илья Сотонин.pdf</v>
+        <v>D:\GIT\email list\PDF\19_19-Илья Сотонин.pdf</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
@@ -1209,17 +1227,17 @@
       <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>9/9</v>
+        <v>20/20</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -1242,7 +1260,7 @@
       </c>
       <c r="I10" s="3" t="str">
         <f t="array" aca="1" ref="I10" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B10,"/","_")&amp;"-"&amp;H10&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\9_9-Алексей Степанов.pdf</v>
+        <v>D:\GIT\email list\PDF\20_20-Алексей Степанов.pdf</v>
       </c>
       <c r="J10" t="s">
         <v>63</v>
@@ -1250,17 +1268,17 @@
       <c r="K10" t="s">
         <v>64</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>10/10</v>
+        <v>21/21</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1283,7 +1301,7 @@
       </c>
       <c r="I11" s="3" t="str">
         <f t="array" aca="1" ref="I11" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B11,"/","_")&amp;"-"&amp;H11&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\10_10-Михаил Сыченко.pdf</v>
+        <v>D:\GIT\email list\PDF\21_21-Михаил Сыченко.pdf</v>
       </c>
       <c r="J11" t="s">
         <v>68</v>
@@ -1291,17 +1309,17 @@
       <c r="K11" t="s">
         <v>69</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>11/11</v>
+        <v>22/22</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -1324,7 +1342,7 @@
       </c>
       <c r="I12" s="3" t="str">
         <f t="array" aca="1" ref="I12" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B12,"/","_")&amp;"-"&amp;H12&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\11_11-Татьяна Файнблинт.pdf</v>
+        <v>D:\GIT\email list\PDF\22_22-Татьяна Файнблинт.pdf</v>
       </c>
       <c r="J12" t="s">
         <v>73</v>
@@ -1332,17 +1350,17 @@
       <c r="K12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>12/12</v>
+        <v>23/23</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -1365,7 +1383,7 @@
       </c>
       <c r="I13" s="3" t="str">
         <f t="array" aca="1" ref="I13" ca="1">LEFT(CELL("имяфайла"),SEARCH("[",CELL("имяфайла"))-1)&amp;"PDF\"&amp;SUBSTITUTE(B13,"/","_")&amp;"-"&amp;H13&amp;".pdf"</f>
-        <v>D:\GIT\email list\PDF\12_12-Александр Шабаев.pdf</v>
+        <v>D:\GIT\email list\PDF\23_23-Александр Шабаев.pdf</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -1373,7 +1391,7 @@
       <c r="K13" t="s">
         <v>79</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
